--- a/medicine/Pharmacie/Classe_ATC_C01/Classe_ATC_C01.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_C01/Classe_ATC_C01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC C01, dénommée « Thérapie cardiaque », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC C01, dénommée « Thérapie cardiaque », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
 </t>
         </is>
       </c>
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C01AA Glycosides de la Digitale
+          <t>C01AA Glycosides de la Digitale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01AA01 Acétyldigitoxine
 C01AA02 Acétyldigoxine
 C01AA03 Feuilles de digitale
@@ -524,14 +542,7 @@
 C01AA08 Métildigoxine
 C01AA09 Gitoformate
 C01AA52 Acétyldigoxine, associations
-C01AB Glycosides de la scille
-C01AB01 Proscillaridine
-C01AB51 Proscillaridine, associations
-C01AC Glycosides du Strophantus
-C01AC01 Ouabaïne (g-strophanthine)
-C01AC03 Cymarine (h-strophanthine)
-C01AX Autres glycosides cardiotoniques
-C01AX02 Péruvoside</t>
+</t>
         </is>
       </c>
     </row>
@@ -556,12 +567,132 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>C01A Glycosides cardiotoniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C01AB Glycosides de la scille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+C01AB01 Proscillaridine
+C01AB51 Proscillaridine, associations
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C01A Glycosides cardiotoniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C01AC Glycosides du Strophantus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+C01AC01 Ouabaïne (g-strophanthine)
+C01AC03 Cymarine (h-strophanthine)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C01A Glycosides cardiotoniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C01AX Autres glycosides cardiotoniques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C01AX02 Péruvoside</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>C01B Antiarythmiques, classe I et III</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C01BA Antiarythmiques, classe Ia
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C01BA Antiarythmiques, classe Ia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01BA01 Quinidine
 C01BA02 Procaïnamide
 C01BA03 Disopyramide
@@ -572,18 +703,126 @@
 C01BA13 Hydroquinidine
 C01BA51 Quinidine, associations sans psycholeptiques
 C01BA71 Quinidine, associations avec des psycholeptiques
-C01BB Antiarythmiques, classe Ib
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C01B Antiarythmiques, classe I et III</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C01BB Antiarythmiques, classe Ib</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01BB01 Lidocaïne
 C01BB02 Mexilétine
 C01BB03 Tocaïnide
 C01BB04 Aprindine
-C01BC Antiarythmiques, classe Ic
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C01B Antiarythmiques, classe I et III</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C01BC Antiarythmiques, classe Ic</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01BC03 Propafénone
 C01BC04 Flécaïnide
 C01BC07 Lorcaïnide
 C01BC08 Encaïnide
 C01BC09 Éthacizine
-C01BD Antiarythmiques, classe III
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C01B Antiarythmiques, classe I et III</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C01BD Antiarythmiques, classe III</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01BD01 Amiodarone
 C01BD02 Tosilate de Brétylium
 C01BD03 Bunaftine
@@ -591,7 +830,43 @@
 C01BD05 Ibutilide
 C01BD06 Tédisamil
 C01BD07 Dronédarone
-C01BG Autres antiarythmiques de classe I et III
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C01B Antiarythmiques, classe I et III</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C01BG Autres antiarythmiques de classe I et III</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01BG01 Moracizine
 C01BG07 Cibenzoline
 C01BG11 Vernakalant
@@ -599,33 +874,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>C01C Cardiotoniques à l'exclusion des glycosides cardiotoniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C01CA Agents adrénergiques et dopaminergiques
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>C01CA Agents adrénergiques et dopaminergiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01CA01 Étiléfrine
 C01CA02 Isoprénaline
 C01CA03 Norépinéphrine (Noradrénaline)
@@ -654,13 +935,85 @@
 C01CA27 Droxidopa
 C01CA30 Associations
 C01CA51 Étiléfrine, associations
-C01CE Inhibiteurs de la phosphodiestérase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C01C Cardiotoniques à l'exclusion des glycosides cardiotoniques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C01CE Inhibiteurs de la phosphodiestérase</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01CE01 Amrinone
 C01CE02 Milrinone
 C01CE03 Énoximone
 C01CE04 Bucladésine
 QC01CE90 Pimobendane
-C01CX Autres stimulants cardiaques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C01C Cardiotoniques à l'exclusion des glycosides cardiotoniques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C01CX Autres stimulants cardiaques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01CX06 Angiotensinamide
 C01CX07 Xamotérol
 C01CX08 Lévosimendan
@@ -668,33 +1021,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>C01D Vasodilateurs utilisés dans des maladies cardiaques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C01DA Nitrates organiques
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>C01DA Nitrates organiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01DA02 Glycéryl trinitrate
 C01DA04 Méthylpropylpropanediol dinitrate
 C01DA05 Pentaérithrityl tétranitrate
@@ -713,9 +1072,79 @@
 C01DA59 Trolnitrate, associations
 C01DA63 Éritrityl tétranitrate, associations
 C01DA70 Nitrates organiques, associations avec des psycholeptiques
-C01DB Vasodilateurs à base de quinolones
-C01DB01 Floséquinan
-C01DX Autres vasodilateurs utilisés dans des maladies cardiaques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C01D Vasodilateurs utilisés dans des maladies cardiaques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C01DB Vasodilateurs à base de quinolones</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>C01DB01 Floséquinan</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C01D Vasodilateurs utilisés dans des maladies cardiaques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>C01DX Autres vasodilateurs utilisés dans des maladies cardiaques</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01DX01 Tosilate d'itramin
 C01DX02 Prénylamine
 C01DX03 Oxyfédrine
@@ -743,35 +1172,75 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C01</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>C01E Autres médicaments pour le cœur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>C01EA Prostaglandines
-C01EA01 Alprostadil
-C01EB Autres médicaments pour le cœur
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>C01EA Prostaglandines</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>C01EA01 Alprostadil</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C01E Autres médicaments pour le cœur</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>C01EB Autres médicaments pour le cœur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 C01EB02 Camphre
 C01EB03 Indométacine
 C01EB04 Glycosides du Crataegus (aubépine)
@@ -789,7 +1258,7 @@
 C01EB21 Régadénoson
 C01EB22 Meldonium
 C01EB23 Acide tiazotique
-C01EX Autres médicaments pour le cœur (associations)</t>
+</t>
         </is>
       </c>
     </row>
